--- a/заказы/статистика филиалы/2023/11,23/01,11,23 КИ/дв 01,11,23 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/01,11,23 КИ/дв 01,11,23 лгрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\01,11,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\01,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960F6900-0CE2-4DE2-AA96-3C7855E2AEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8615DA6E-2B91-47FE-9B5D-AC8733B02E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,10 +426,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -5290,7 +5294,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5959,8 +5963,8 @@
   <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U75" sqref="U75"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6127,20 +6131,20 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="17">
-        <f>SUM(F6:F89)</f>
-        <v>17229.004999999997</v>
+        <f>SUM(F6:F138)</f>
+        <v>17268.630999999998</v>
       </c>
       <c r="G5" s="17">
-        <f>SUM(G6:G89)</f>
-        <v>30674.30599999999</v>
+        <f t="shared" ref="G5:I5" si="0">SUM(G6:G138)</f>
+        <v>30712.638999999988</v>
       </c>
       <c r="H5" s="17">
-        <f>SUM(H6:H89)</f>
+        <f t="shared" si="0"/>
         <v>2108.0669999999996</v>
       </c>
       <c r="I5" s="17">
-        <f>SUM(I6:I89)</f>
-        <v>28566.238999999987</v>
+        <f t="shared" si="0"/>
+        <v>28604.571999999986</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="17">
@@ -6152,15 +6156,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" ref="M5:N5" si="0">SUM(M6:M89)</f>
-        <v>15292.478999999998</v>
+        <f t="shared" ref="M5:T5" si="1">SUM(M6:M138)</f>
+        <v>15332.104999999996</v>
       </c>
       <c r="N5" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1936.5260000000001</v>
       </c>
       <c r="O5" s="17">
-        <f t="shared" ref="O5:T5" si="1">SUM(O6:O89)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="17">
@@ -6169,7 +6173,7 @@
       </c>
       <c r="Q5" s="17">
         <f t="shared" si="1"/>
-        <v>3058.4957999999992</v>
+        <v>3066.4209999999989</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="1"/>
@@ -6187,20 +6191,20 @@
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="17">
-        <f>SUM(X6:X89)</f>
-        <v>2935.7429999999999</v>
+        <f t="shared" ref="X5:Z5" si="2">SUM(X6:X138)</f>
+        <v>2994.7445999999995</v>
       </c>
       <c r="Y5" s="17">
-        <f>SUM(Y6:Y89)</f>
-        <v>3135.8678</v>
+        <f t="shared" si="2"/>
+        <v>3187.1998000000003</v>
       </c>
       <c r="Z5" s="17">
-        <f>SUM(Z6:Z89)</f>
-        <v>3472.2989999999986</v>
+        <f t="shared" si="2"/>
+        <v>3533.6417999999985</v>
       </c>
       <c r="AA5" s="10"/>
       <c r="AB5" s="17">
-        <f>SUM(AB6:AB89)</f>
+        <f>SUM(AB6:AB138)</f>
         <v>10404.400000000001</v>
       </c>
     </row>
@@ -6302,7 +6306,7 @@
         <v>43.55</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" ref="I7:I70" si="2">G7-H7</f>
+        <f t="shared" ref="I7:I70" si="3">G7-H7</f>
         <v>344.81900000000002</v>
       </c>
       <c r="J7" s="18">
@@ -6310,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="M7:M70" si="3">F7-N7</f>
+        <f t="shared" ref="M7:M70" si="4">F7-N7</f>
         <v>539.35299999999995</v>
       </c>
       <c r="N7" s="2">
@@ -6318,7 +6322,7 @@
         <v>41.692</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" ref="Q7:Q70" si="4">M7/5</f>
+        <f t="shared" ref="Q7:Q70" si="5">M7/5</f>
         <v>107.8706</v>
       </c>
       <c r="R7" s="19">
@@ -6330,11 +6334,11 @@
       </c>
       <c r="T7" s="19"/>
       <c r="V7" s="2">
-        <f t="shared" ref="V7:V70" si="5">(I7+S7)/Q7</f>
+        <f t="shared" ref="V7:V70" si="6">(I7+S7)/Q7</f>
         <v>9.8712624199735615</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" ref="W7:W70" si="6">I7/Q7</f>
+        <f t="shared" ref="W7:W70" si="7">I7/Q7</f>
         <v>3.1965985171121698</v>
       </c>
       <c r="X7" s="2">
@@ -6350,7 +6354,7 @@
         <v>67.971199999999996</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" ref="AB7:AB70" si="7">S7*J7</f>
+        <f t="shared" ref="AB7:AB70" si="8">S7*J7</f>
         <v>720</v>
       </c>
     </row>
@@ -6376,7 +6380,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>429.22</v>
       </c>
       <c r="J8" s="18">
@@ -6384,15 +6388,15 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>297.89600000000002</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5792</v>
       </c>
       <c r="R8" s="19">
-        <f t="shared" ref="R8:R66" si="8">12*Q8-I8</f>
+        <f t="shared" ref="R8:R66" si="9">12*Q8-I8</f>
         <v>285.73039999999992</v>
       </c>
       <c r="S8" s="19">
@@ -6400,11 +6404,11 @@
       </c>
       <c r="T8" s="19"/>
       <c r="V8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.735974971130865</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.204192067030105</v>
       </c>
       <c r="X8" s="2">
@@ -6420,7 +6424,7 @@
         <v>24.565799999999999</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
     </row>
@@ -6446,7 +6450,7 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>648.18899999999996</v>
       </c>
       <c r="J9" s="18">
@@ -6454,25 +6458,25 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.578000000000003</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.3156</v>
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="19">
-        <f t="shared" ref="S7:S70" si="9">R9</f>
+        <f t="shared" ref="S9:S70" si="10">R9</f>
         <v>0</v>
       </c>
       <c r="T9" s="19"/>
       <c r="V9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.557797842158671</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.557797842158671</v>
       </c>
       <c r="X9" s="2">
@@ -6488,7 +6492,7 @@
         <v>91.713999999999999</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6514,7 +6518,7 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>559.32100000000003</v>
       </c>
       <c r="J10" s="18">
@@ -6522,25 +6526,25 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107.381</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.476199999999999</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T10" s="19"/>
       <c r="V10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.043760069286002</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26.043760069286002</v>
       </c>
       <c r="X10" s="2">
@@ -6556,7 +6560,7 @@
         <v>57.903999999999996</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6580,7 +6584,7 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="J11" s="18">
@@ -6588,25 +6592,25 @@
         <v>0.35</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T11" s="19"/>
       <c r="V11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.555555555555554</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.555555555555554</v>
       </c>
       <c r="X11" s="2">
@@ -6622,7 +6626,7 @@
         <v>5.2</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6648,7 +6652,7 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>373</v>
       </c>
       <c r="J12" s="18">
@@ -6656,15 +6660,15 @@
         <v>0.45</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.799999999999997</v>
       </c>
       <c r="R12" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68.599999999999966</v>
       </c>
       <c r="S12" s="19">
@@ -6672,11 +6676,11 @@
       </c>
       <c r="T12" s="19"/>
       <c r="V12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.902173913043478</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.135869565217392</v>
       </c>
       <c r="X12" s="2">
@@ -6692,7 +6696,7 @@
         <v>48.8</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.25</v>
       </c>
     </row>
@@ -6718,7 +6722,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="J13" s="18">
@@ -6726,15 +6730,15 @@
         <v>0.45</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>187</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.4</v>
       </c>
       <c r="R13" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>206.79999999999995</v>
       </c>
       <c r="S13" s="19">
@@ -6742,11 +6746,11 @@
       </c>
       <c r="T13" s="19"/>
       <c r="V13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.818181818181818</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4705882352941178</v>
       </c>
       <c r="X13" s="2">
@@ -6762,7 +6766,7 @@
         <v>39</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -6786,7 +6790,7 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="J14" s="18">
@@ -6794,25 +6798,25 @@
         <v>0.35</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="R14" s="19"/>
       <c r="S14" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T14" s="19"/>
       <c r="V14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91.666666666666671</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91.666666666666671</v>
       </c>
       <c r="X14" s="2">
@@ -6828,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6857,7 +6861,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="J15" s="18">
@@ -6865,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="N15" s="2">
@@ -6873,23 +6877,23 @@
         <v>109</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
       <c r="R15" s="19"/>
       <c r="S15" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T15" s="19"/>
       <c r="V15" s="2">
-        <f t="shared" si="5"/>
-        <v>26.944444444444443</v>
-      </c>
-      <c r="W15" s="2">
         <f t="shared" si="6"/>
         <v>26.944444444444443</v>
       </c>
+      <c r="W15" s="2">
+        <f t="shared" si="7"/>
+        <v>26.944444444444443</v>
+      </c>
       <c r="X15" s="2">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -6903,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6932,7 +6936,7 @@
         <v>102</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="J16" s="18">
@@ -6940,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="N16" s="2">
@@ -6948,23 +6952,23 @@
         <v>101</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.8</v>
       </c>
       <c r="R16" s="19"/>
       <c r="S16" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T16" s="19"/>
       <c r="V16" s="2">
-        <f t="shared" si="5"/>
-        <v>0.47872340425531912</v>
-      </c>
-      <c r="W16" s="2">
         <f t="shared" si="6"/>
         <v>0.47872340425531912</v>
       </c>
+      <c r="W16" s="2">
+        <f t="shared" si="7"/>
+        <v>0.47872340425531912</v>
+      </c>
       <c r="X16" s="2">
         <f>VLOOKUP(A16,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -6978,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7007,7 +7011,7 @@
         <v>78</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="J17" s="18">
@@ -7015,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="N17" s="2">
@@ -7023,23 +7027,23 @@
         <v>74</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
       <c r="R17" s="19"/>
       <c r="S17" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T17" s="19"/>
       <c r="V17" s="2">
-        <f t="shared" si="5"/>
-        <v>4.0476190476190474</v>
-      </c>
-      <c r="W17" s="2">
         <f t="shared" si="6"/>
         <v>4.0476190476190474</v>
       </c>
+      <c r="W17" s="2">
+        <f t="shared" si="7"/>
+        <v>4.0476190476190474</v>
+      </c>
       <c r="X17" s="2">
         <f>VLOOKUP(A17,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -7053,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7082,7 +7086,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="J18" s="18">
@@ -7090,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="N18" s="2">
@@ -7098,23 +7102,23 @@
         <v>95</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T18" s="19"/>
       <c r="V18" s="2">
-        <f t="shared" si="5"/>
-        <v>72.857142857142861</v>
-      </c>
-      <c r="W18" s="2">
         <f t="shared" si="6"/>
         <v>72.857142857142861</v>
       </c>
+      <c r="W18" s="2">
+        <f t="shared" si="7"/>
+        <v>72.857142857142861</v>
+      </c>
       <c r="X18" s="2">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -7128,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7157,7 +7161,7 @@
         <v>120</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="J19" s="18">
@@ -7165,7 +7169,7 @@
         <v>0.17</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157</v>
       </c>
       <c r="N19" s="2">
@@ -7173,21 +7177,21 @@
         <v>109</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.4</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T19" s="19"/>
       <c r="V19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.898089171974522</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.898089171974522</v>
       </c>
       <c r="X19" s="2">
@@ -7203,7 +7207,7 @@
         <v>30.8</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7229,7 +7233,7 @@
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="J20" s="18">
@@ -7237,25 +7241,25 @@
         <v>0.42</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.8</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T20" s="19"/>
       <c r="V20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.378378378378377</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.378378378378377</v>
       </c>
       <c r="X20" s="2">
@@ -7271,7 +7275,7 @@
         <v>23.6</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7296,7 +7300,7 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>282</v>
       </c>
       <c r="J21" s="18">
@@ -7304,25 +7308,25 @@
         <v>0.42</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T21" s="19"/>
       <c r="V21" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W21" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X21" s="2">
@@ -7338,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7360,34 +7364,34 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="J22" s="18">
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="R22" s="19"/>
       <c r="S22" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T22" s="19"/>
       <c r="V22" s="2">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="W22" s="2">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
+      <c r="W22" s="2">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
       <c r="X22" s="2">
         <v>0</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7427,7 +7431,7 @@
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>565.19200000000001</v>
       </c>
       <c r="J23" s="18">
@@ -7435,15 +7439,15 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>434.60300000000001</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.920600000000007</v>
       </c>
       <c r="R23" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>477.85519999999997</v>
       </c>
       <c r="S23" s="19">
@@ -7451,11 +7455,11 @@
       </c>
       <c r="T23" s="19"/>
       <c r="V23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.794580341138923</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.5023941390188282</v>
       </c>
       <c r="X23" s="2">
@@ -7471,7 +7475,7 @@
         <v>52.028399999999998</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
     </row>
@@ -7497,7 +7501,7 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2026.711</v>
       </c>
       <c r="J24" s="18">
@@ -7505,15 +7509,15 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>884.63199999999995</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176.9264</v>
       </c>
       <c r="R24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>96.405799999999772</v>
       </c>
       <c r="S24" s="19">
@@ -7526,11 +7530,11 @@
         <v>122</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.846348538149197</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.455107886669259</v>
       </c>
       <c r="X24" s="2">
@@ -7546,7 +7550,7 @@
         <v>231.45120000000003</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
     </row>
@@ -7572,7 +7576,7 @@
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128.81</v>
       </c>
       <c r="J25" s="18">
@@ -7580,15 +7584,15 @@
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86.322999999999993</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.264599999999998</v>
       </c>
       <c r="R25" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>78.365199999999959</v>
       </c>
       <c r="S25" s="19">
@@ -7596,11 +7600,11 @@
       </c>
       <c r="T25" s="19"/>
       <c r="V25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.515470963706083</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4609316172978239</v>
       </c>
       <c r="X25" s="2">
@@ -7616,7 +7620,7 @@
         <v>17.914400000000001</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
@@ -7645,7 +7649,7 @@
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1120.6600000000001</v>
       </c>
       <c r="J26" s="18">
@@ -7653,15 +7657,15 @@
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>676.11199999999997</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.22239999999999</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>502.00879999999984</v>
       </c>
       <c r="S26" s="19">
@@ -7669,11 +7673,11 @@
       </c>
       <c r="T26" s="19"/>
       <c r="V26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.91119222850652</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.2875322431786458</v>
       </c>
       <c r="X26" s="2">
@@ -7689,7 +7693,7 @@
         <v>153.8288</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>490</v>
       </c>
     </row>
@@ -7715,7 +7719,7 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4082.9720000000002</v>
       </c>
       <c r="J27" s="18">
@@ -7723,15 +7727,15 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2136.9929999999999</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>427.39859999999999</v>
       </c>
       <c r="R27" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1045.8111999999996</v>
       </c>
       <c r="S27" s="19">
@@ -7739,11 +7743,11 @@
       </c>
       <c r="T27" s="19"/>
       <c r="V27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.892813874448816</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5530776188784898</v>
       </c>
       <c r="X27" s="2">
@@ -7759,7 +7763,7 @@
         <v>500.17740000000003</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
@@ -7791,7 +7795,7 @@
         <v>47.53</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>402.35799999999995</v>
       </c>
       <c r="J28" s="18">
@@ -7799,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130.59299999999999</v>
       </c>
       <c r="N28" s="2">
@@ -7807,21 +7811,21 @@
         <v>48.585000000000001</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.118599999999997</v>
       </c>
       <c r="R28" s="19"/>
       <c r="S28" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T28" s="19"/>
       <c r="V28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.405037023423919</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.405037023423919</v>
       </c>
       <c r="X28" s="2">
@@ -7837,7 +7841,7 @@
         <v>61.3996</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7866,7 +7870,7 @@
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>803.33699999999999</v>
       </c>
       <c r="J29" s="18">
@@ -7874,25 +7878,25 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5129999999999999</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3026</v>
       </c>
       <c r="R29" s="19"/>
       <c r="S29" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T29" s="19"/>
       <c r="V29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>616.71810225702438</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>616.71810225702438</v>
       </c>
       <c r="X29" s="2">
@@ -7908,7 +7912,7 @@
         <v>90.722999999999999</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7934,7 +7938,7 @@
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1732.489</v>
       </c>
       <c r="J30" s="18">
@@ -7942,15 +7946,15 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1301.9490000000001</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260.38980000000004</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1392.1886000000004</v>
       </c>
       <c r="S30" s="19">
@@ -7958,11 +7962,11 @@
       </c>
       <c r="T30" s="19"/>
       <c r="V30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.837979060623725</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6534441825294222</v>
       </c>
       <c r="X30" s="2">
@@ -7978,7 +7982,7 @@
         <v>240.22539999999998</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1350</v>
       </c>
     </row>
@@ -8004,7 +8008,7 @@
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1418.249</v>
       </c>
       <c r="J31" s="18">
@@ -8012,15 +8016,15 @@
         <v>1</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>971.99</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>194.398</v>
       </c>
       <c r="R31" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>914.52699999999982</v>
       </c>
       <c r="S31" s="19">
@@ -8028,11 +8032,11 @@
       </c>
       <c r="T31" s="19"/>
       <c r="V31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.925271864936882</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2955946048827665</v>
       </c>
       <c r="X31" s="2">
@@ -8048,7 +8052,7 @@
         <v>168.22739999999999</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
     </row>
@@ -8077,7 +8081,7 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>528.25900000000001</v>
       </c>
       <c r="J32" s="18">
@@ -8085,15 +8089,15 @@
         <v>1</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>395.48899999999998</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.097799999999992</v>
       </c>
       <c r="R32" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>420.91459999999984</v>
       </c>
       <c r="S32" s="19">
@@ -8101,11 +8105,11 @@
       </c>
       <c r="T32" s="19"/>
       <c r="V32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.862011332805718</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6785549029176545</v>
       </c>
       <c r="X32" s="2">
@@ -8121,7 +8125,7 @@
         <v>75.543599999999998</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>410</v>
       </c>
     </row>
@@ -8150,7 +8154,7 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>522.06799999999998</v>
       </c>
       <c r="J33" s="18">
@@ -8158,25 +8162,25 @@
         <v>1</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2149999999999999</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64300000000000002</v>
       </c>
       <c r="R33" s="19"/>
       <c r="S33" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T33" s="19"/>
       <c r="V33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>811.92534992223943</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>811.92534992223943</v>
       </c>
       <c r="X33" s="2">
@@ -8192,7 +8196,7 @@
         <v>74.547799999999995</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8221,7 +8225,7 @@
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>686.12699999999995</v>
       </c>
       <c r="J34" s="18">
@@ -8229,25 +8233,25 @@
         <v>1</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>177.446</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.489199999999997</v>
       </c>
       <c r="R34" s="19"/>
       <c r="S34" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T34" s="19"/>
       <c r="V34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.333402838046506</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.333402838046506</v>
       </c>
       <c r="X34" s="2">
@@ -8263,7 +8267,7 @@
         <v>94.67519999999999</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8289,7 +8293,7 @@
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146.70500000000001</v>
       </c>
       <c r="J35" s="18">
@@ -8297,15 +8301,15 @@
         <v>1</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116.334</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.2668</v>
       </c>
       <c r="R35" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>132.49659999999997</v>
       </c>
       <c r="S35" s="19">
@@ -8313,11 +8317,11 @@
       </c>
       <c r="T35" s="19"/>
       <c r="V35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.677798408032048</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.3053363591039595</v>
       </c>
       <c r="X35" s="2">
@@ -8333,7 +8337,7 @@
         <v>9.5096000000000007</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
@@ -8359,7 +8363,7 @@
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192.69</v>
       </c>
       <c r="J36" s="18">
@@ -8367,15 +8371,15 @@
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93.694999999999993</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.738999999999997</v>
       </c>
       <c r="R36" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.177999999999969</v>
       </c>
       <c r="S36" s="19">
@@ -8383,11 +8387,11 @@
       </c>
       <c r="T36" s="19"/>
       <c r="V36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.883771812796843</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.282832595122473</v>
       </c>
       <c r="X36" s="2">
@@ -8403,7 +8407,7 @@
         <v>23.4132</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -8429,7 +8433,7 @@
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>455.411</v>
       </c>
       <c r="J37" s="18">
@@ -8437,15 +8441,15 @@
         <v>1</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>265.67700000000002</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.135400000000004</v>
       </c>
       <c r="R37" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>182.21380000000005</v>
       </c>
       <c r="S37" s="19">
@@ -8458,11 +8462,11 @@
         <v>121</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.275725787328222</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.5707644997496946</v>
       </c>
       <c r="X37" s="2">
@@ -8478,7 +8482,7 @@
         <v>59.444600000000001</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
     </row>
@@ -8504,7 +8508,7 @@
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>489.03</v>
       </c>
       <c r="J38" s="18">
@@ -8512,15 +8516,15 @@
         <v>1</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>218.459</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.691800000000001</v>
       </c>
       <c r="R38" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35.271600000000035</v>
       </c>
       <c r="S38" s="19">
@@ -8533,11 +8537,11 @@
         <v>121</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.312484264781949</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.192718084400276</v>
       </c>
       <c r="X38" s="2">
@@ -8553,7 +8557,7 @@
         <v>49.817999999999998</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
     </row>
@@ -8582,7 +8586,7 @@
         <v>42.375999999999998</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>556.45000000000005</v>
       </c>
       <c r="J39" s="18">
@@ -8590,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147.9</v>
       </c>
       <c r="N39" s="2">
@@ -8598,21 +8602,21 @@
         <v>35.396999999999998</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.580000000000002</v>
       </c>
       <c r="R39" s="19"/>
       <c r="S39" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T39" s="19"/>
       <c r="V39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.811697092630155</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.811697092630155</v>
       </c>
       <c r="X39" s="2">
@@ -8628,7 +8632,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8654,7 +8658,7 @@
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>343.90800000000002</v>
       </c>
       <c r="J40" s="18">
@@ -8662,11 +8666,11 @@
         <v>1</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>619.91800000000001</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123.9836</v>
       </c>
       <c r="R40" s="19">
@@ -8678,11 +8682,11 @@
       </c>
       <c r="T40" s="19"/>
       <c r="V40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8715313960878692</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7738184727657531</v>
       </c>
       <c r="X40" s="2">
@@ -8698,7 +8702,7 @@
         <v>78.695000000000007</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>880</v>
       </c>
     </row>
@@ -8724,7 +8728,7 @@
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>367.65199999999999</v>
       </c>
       <c r="J41" s="18">
@@ -8732,15 +8736,15 @@
         <v>1</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184.62100000000001</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.924199999999999</v>
       </c>
       <c r="R41" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75.438400000000001</v>
       </c>
       <c r="S41" s="19">
@@ -8753,11 +8757,11 @@
         <v>121</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.831790533037955</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9569388097778688</v>
       </c>
       <c r="X41" s="2">
@@ -8773,7 +8777,7 @@
         <v>37.139400000000002</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
     </row>
@@ -8802,7 +8806,7 @@
         <v>42.268000000000001</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.3620000000000019</v>
       </c>
       <c r="J42" s="18">
@@ -8810,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.641999999999996</v>
       </c>
       <c r="N42" s="2">
@@ -8818,23 +8822,23 @@
         <v>40.908000000000001</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.928399999999999</v>
       </c>
       <c r="R42" s="19"/>
       <c r="S42" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T42" s="19"/>
       <c r="V42" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.17178749810806745</v>
-      </c>
-      <c r="W42" s="2">
         <f t="shared" si="6"/>
         <v>-0.17178749810806745</v>
       </c>
+      <c r="W42" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.17178749810806745</v>
+      </c>
       <c r="X42" s="2">
         <f>VLOOKUP(A42,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -8848,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8872,7 +8876,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J43" s="18">
@@ -8880,11 +8884,11 @@
         <v>1</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.793999999999997</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1587999999999994</v>
       </c>
       <c r="R43" s="19">
@@ -8896,11 +8900,11 @@
       </c>
       <c r="T43" s="19"/>
       <c r="V43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7411874295239498</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X43" s="2">
@@ -8916,7 +8920,7 @@
         <v>0.4304</v>
       </c>
       <c r="AB43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
     </row>
@@ -8942,7 +8946,7 @@
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157.76400000000001</v>
       </c>
       <c r="J44" s="18">
@@ -8950,15 +8954,15 @@
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78.695999999999998</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.7392</v>
       </c>
       <c r="R44" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.106400000000008</v>
       </c>
       <c r="S44" s="19">
@@ -8966,11 +8970,11 @@
       </c>
       <c r="T44" s="19"/>
       <c r="V44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.92970417810308</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.023635254650809</v>
       </c>
       <c r="X44" s="2">
@@ -8986,7 +8990,7 @@
         <v>21.702000000000002</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -9012,7 +9016,7 @@
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183</v>
       </c>
       <c r="J45" s="18">
@@ -9020,15 +9024,15 @@
         <v>0.35</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.2</v>
       </c>
       <c r="R45" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.399999999999977</v>
       </c>
       <c r="S45" s="19">
@@ -9036,11 +9040,11 @@
       </c>
       <c r="T45" s="19"/>
       <c r="V45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.802325581395349</v>
       </c>
       <c r="W45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.63953488372093</v>
       </c>
       <c r="X45" s="2">
@@ -9056,7 +9060,7 @@
         <v>21.8</v>
       </c>
       <c r="AB45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -9088,7 +9092,7 @@
         <v>84</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J46" s="18">
@@ -9096,7 +9100,7 @@
         <v>0.4</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>694</v>
       </c>
       <c r="N46" s="2">
@@ -9104,7 +9108,7 @@
         <v>82</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.80000000000001</v>
       </c>
       <c r="R46" s="19">
@@ -9116,11 +9120,11 @@
       </c>
       <c r="T46" s="19"/>
       <c r="V46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8659942363112387</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1613832853025934E-2</v>
       </c>
       <c r="X46" s="2">
@@ -9136,7 +9140,7 @@
         <v>31.2</v>
       </c>
       <c r="AB46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>380</v>
       </c>
     </row>
@@ -9162,7 +9166,7 @@
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="J47" s="18">
@@ -9170,15 +9174,15 @@
         <v>0.45</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="R47" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="S47" s="19">
@@ -9186,11 +9190,11 @@
       </c>
       <c r="T47" s="19"/>
       <c r="V47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.692307692307692</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.2307692307692299</v>
       </c>
       <c r="X47" s="2">
@@ -9206,7 +9210,7 @@
         <v>16.2</v>
       </c>
       <c r="AB47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20.25</v>
       </c>
     </row>
@@ -9232,7 +9236,7 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>962.22699999999998</v>
       </c>
       <c r="J48" s="18">
@@ -9240,25 +9244,25 @@
         <v>1</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>345.99900000000002</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69.19980000000001</v>
       </c>
       <c r="R48" s="19"/>
       <c r="S48" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T48" s="19"/>
       <c r="V48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.905054638886238</v>
       </c>
       <c r="W48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.905054638886238</v>
       </c>
       <c r="X48" s="2">
@@ -9274,7 +9278,7 @@
         <v>121.02979999999999</v>
       </c>
       <c r="AB48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9303,7 +9307,7 @@
         <v>102</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="J49" s="18">
@@ -9311,7 +9315,7 @@
         <v>0.35</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="N49" s="2">
@@ -9319,11 +9323,11 @@
         <v>101</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.4</v>
       </c>
       <c r="R49" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.800000000000011</v>
       </c>
       <c r="S49" s="19">
@@ -9331,11 +9335,11 @@
       </c>
       <c r="T49" s="19"/>
       <c r="V49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.693548387096774</v>
       </c>
       <c r="W49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.854838709677419</v>
       </c>
       <c r="X49" s="2">
@@ -9351,7 +9355,7 @@
         <v>3.8</v>
       </c>
       <c r="AB49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -9375,7 +9379,7 @@
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.359</v>
       </c>
       <c r="J50" s="18">
@@ -9383,11 +9387,11 @@
         <v>1</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105.622</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.124400000000001</v>
       </c>
       <c r="R50" s="19">
@@ -9399,11 +9403,11 @@
       </c>
       <c r="T50" s="19"/>
       <c r="V50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7805286777375926</v>
       </c>
       <c r="W50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.67973528242222259</v>
       </c>
       <c r="X50" s="2">
@@ -9419,7 +9423,7 @@
         <v>0.1414</v>
       </c>
       <c r="AB50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
@@ -9451,7 +9455,7 @@
         <v>84</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>615</v>
       </c>
       <c r="J51" s="18">
@@ -9459,15 +9463,15 @@
         <v>0.4</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>467</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93.4</v>
       </c>
       <c r="R51" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>505.80000000000018</v>
       </c>
       <c r="S51" s="19">
@@ -9475,11 +9479,11 @@
       </c>
       <c r="T51" s="19"/>
       <c r="V51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.723768736616702</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.5845824411134899</v>
       </c>
       <c r="X51" s="2">
@@ -9495,7 +9499,7 @@
         <v>92.2</v>
       </c>
       <c r="AB51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
     </row>
@@ -9527,7 +9531,7 @@
         <v>138</v>
       </c>
       <c r="I52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>810</v>
       </c>
       <c r="J52" s="18">
@@ -9535,7 +9539,7 @@
         <v>0.4</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>431</v>
       </c>
       <c r="N52" s="2">
@@ -9543,11 +9547,11 @@
         <v>134</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.2</v>
       </c>
       <c r="R52" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>224.40000000000009</v>
       </c>
       <c r="S52" s="19">
@@ -9555,11 +9559,11 @@
       </c>
       <c r="T52" s="19"/>
       <c r="V52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.832946635730858</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3967517401392104</v>
       </c>
       <c r="X52" s="2">
@@ -9575,7 +9579,7 @@
         <v>121</v>
       </c>
       <c r="AB52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
     </row>
@@ -9604,7 +9608,7 @@
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J53" s="18">
@@ -9612,25 +9616,25 @@
         <v>0.4</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="Q53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
       <c r="R53" s="19"/>
       <c r="S53" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T53" s="19"/>
       <c r="V53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.23076923076923</v>
       </c>
       <c r="W53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.23076923076923</v>
       </c>
       <c r="X53" s="2">
@@ -9650,7 +9654,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="AB53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9679,7 +9683,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>465.33499999999998</v>
       </c>
       <c r="J54" s="18">
@@ -9687,15 +9691,15 @@
         <v>1</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>310.01799999999997</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.003599999999992</v>
       </c>
       <c r="R54" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>278.70819999999986</v>
       </c>
       <c r="S54" s="19">
@@ -9703,11 +9707,11 @@
       </c>
       <c r="T54" s="19"/>
       <c r="V54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.698272358379192</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5049674535027009</v>
       </c>
       <c r="X54" s="2">
@@ -9723,7 +9727,7 @@
         <v>62.621200000000002</v>
       </c>
       <c r="AB54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
     </row>
@@ -9752,7 +9756,7 @@
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>322.99599999999998</v>
       </c>
       <c r="J55" s="18">
@@ -9760,11 +9764,11 @@
         <v>1</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>575.37599999999998</v>
       </c>
       <c r="Q55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.0752</v>
       </c>
       <c r="R55" s="19">
@@ -9781,11 +9785,11 @@
         <v>123</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0208072634242651</v>
       </c>
       <c r="W55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8068254497928309</v>
       </c>
       <c r="X55" s="2">
@@ -9801,7 +9805,7 @@
         <v>27.769799999999996</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
     </row>
@@ -9830,7 +9834,7 @@
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>659.1</v>
       </c>
       <c r="J56" s="18">
@@ -9838,25 +9842,25 @@
         <v>1</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.36</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27200000000000002</v>
       </c>
       <c r="R56" s="19"/>
       <c r="S56" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T56" s="19"/>
       <c r="V56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2423.1617647058824</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2423.1617647058824</v>
       </c>
       <c r="X56" s="2">
@@ -9872,7 +9876,7 @@
         <v>93.127200000000002</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9898,7 +9902,7 @@
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>179.85499999999999</v>
       </c>
       <c r="J57" s="18">
@@ -9906,25 +9910,25 @@
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.9</v>
       </c>
       <c r="R57" s="19"/>
       <c r="S57" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T57" s="19"/>
       <c r="V57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-199.83888888888887</v>
       </c>
       <c r="W57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-199.83888888888887</v>
       </c>
       <c r="X57" s="2">
@@ -9944,7 +9948,7 @@
         <v>заказана вместе с акцией</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9973,7 +9977,7 @@
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="J58" s="18">
@@ -9981,25 +9985,25 @@
         <v>0.4</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="R58" s="19"/>
       <c r="S58" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T58" s="19"/>
       <c r="V58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50.454545454545453</v>
       </c>
       <c r="W58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.454545454545453</v>
       </c>
       <c r="X58" s="2">
@@ -10019,7 +10023,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10048,7 +10052,7 @@
         <v>96</v>
       </c>
       <c r="I59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="J59" s="18">
@@ -10056,7 +10060,7 @@
         <v>0.35</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>195.51900000000001</v>
       </c>
       <c r="N59" s="2">
@@ -10064,11 +10068,11 @@
         <v>94</v>
       </c>
       <c r="Q59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.1038</v>
       </c>
       <c r="R59" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>251.24559999999997</v>
       </c>
       <c r="S59" s="19">
@@ -10076,11 +10080,11 @@
       </c>
       <c r="T59" s="19"/>
       <c r="V59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.712416696075573</v>
       </c>
       <c r="W59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.5749057636342245</v>
       </c>
       <c r="X59" s="2">
@@ -10096,7 +10100,7 @@
         <v>26</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
     </row>
@@ -10125,7 +10129,7 @@
         <v>80</v>
       </c>
       <c r="I60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="J60" s="18">
@@ -10133,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="N60" s="2">
@@ -10141,23 +10145,23 @@
         <v>74</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="R60" s="19"/>
       <c r="S60" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T60" s="19"/>
       <c r="V60" s="2">
-        <f t="shared" si="5"/>
-        <v>20.333333333333332</v>
-      </c>
-      <c r="W60" s="2">
         <f t="shared" si="6"/>
         <v>20.333333333333332</v>
       </c>
+      <c r="W60" s="2">
+        <f t="shared" si="7"/>
+        <v>20.333333333333332</v>
+      </c>
       <c r="X60" s="2">
         <f>VLOOKUP(A60,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -10171,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10195,7 +10199,7 @@
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="J61" s="18">
@@ -10203,25 +10207,25 @@
         <v>0.35</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.35</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8699999999999999</v>
       </c>
       <c r="R61" s="19"/>
       <c r="S61" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T61" s="19"/>
       <c r="V61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.181818181818183</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.181818181818183</v>
       </c>
       <c r="X61" s="2">
@@ -10237,7 +10241,7 @@
         <v>3.6</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10259,7 +10263,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J62" s="18">
@@ -10267,25 +10271,25 @@
         <v>0</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R62" s="19"/>
       <c r="S62" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T62" s="19"/>
       <c r="V62" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W62" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X62" s="2">
@@ -10301,7 +10305,7 @@
         <v>1.2</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10330,7 +10334,7 @@
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="J63" s="18">
@@ -10338,25 +10342,25 @@
         <v>0.4</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
       <c r="R63" s="19"/>
       <c r="S63" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T63" s="19"/>
       <c r="V63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>126.25</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126.25</v>
       </c>
       <c r="X63" s="2">
@@ -10376,7 +10380,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10398,7 +10402,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64" s="18">
@@ -10406,11 +10410,11 @@
         <v>1</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83.165999999999997</v>
       </c>
       <c r="Q64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.633199999999999</v>
       </c>
       <c r="R64" s="19">
@@ -10422,11 +10426,11 @@
       </c>
       <c r="T64" s="19"/>
       <c r="V64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6132794651660536</v>
       </c>
       <c r="W64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X64" s="2">
@@ -10442,7 +10446,7 @@
         <v>0.42580000000000001</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
     </row>
@@ -10468,7 +10472,7 @@
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="J65" s="18">
@@ -10476,25 +10480,25 @@
         <v>0.35</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2</v>
       </c>
       <c r="R65" s="19"/>
       <c r="S65" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T65" s="19"/>
       <c r="V65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.761904761904761</v>
       </c>
       <c r="W65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.761904761904761</v>
       </c>
       <c r="X65" s="2">
@@ -10510,7 +10514,7 @@
         <v>7.2</v>
       </c>
       <c r="AB65" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10536,7 +10540,7 @@
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="J66" s="18">
@@ -10544,15 +10548,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.8</v>
       </c>
       <c r="R66" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69.600000000000023</v>
       </c>
       <c r="S66" s="19">
@@ -10560,11 +10564,11 @@
       </c>
       <c r="T66" s="19"/>
       <c r="V66" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.806722689075629</v>
       </c>
       <c r="W66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0756302521008401</v>
       </c>
       <c r="X66" s="2">
@@ -10580,7 +10584,7 @@
         <v>28.2</v>
       </c>
       <c r="AB66" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.200000000000003</v>
       </c>
     </row>
@@ -10609,7 +10613,7 @@
         <v>46.06</v>
       </c>
       <c r="I67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>269.46999999999997</v>
       </c>
       <c r="J67" s="18">
@@ -10617,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.999999999999993</v>
       </c>
       <c r="N67" s="2">
@@ -10625,21 +10629,21 @@
         <v>41.026000000000003</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="R67" s="19"/>
       <c r="S67" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T67" s="19"/>
       <c r="V67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.496938775510205</v>
       </c>
       <c r="W67" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.496938775510205</v>
       </c>
       <c r="X67" s="2">
@@ -10655,7 +10659,7 @@
         <v>37.247199999999999</v>
       </c>
       <c r="AB67" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10679,7 +10683,7 @@
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J68" s="18">
@@ -10687,11 +10691,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>158</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.6</v>
       </c>
       <c r="R68" s="19">
@@ -10703,11 +10707,11 @@
       </c>
       <c r="T68" s="19"/>
       <c r="V68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4936708860759484</v>
       </c>
       <c r="W68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5316455696202529</v>
       </c>
       <c r="X68" s="2">
@@ -10723,7 +10727,7 @@
         <v>32.4</v>
       </c>
       <c r="AB68" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.600000000000009</v>
       </c>
     </row>
@@ -10752,7 +10756,7 @@
         <v>80</v>
       </c>
       <c r="I69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="J69" s="18">
@@ -10760,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N69" s="2">
@@ -10768,23 +10772,23 @@
         <v>74</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
       <c r="R69" s="19"/>
       <c r="S69" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T69" s="19"/>
       <c r="V69" s="2">
-        <f t="shared" si="5"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="W69" s="2">
         <f t="shared" si="6"/>
         <v>26.666666666666668</v>
       </c>
+      <c r="W69" s="2">
+        <f t="shared" si="7"/>
+        <v>26.666666666666668</v>
+      </c>
       <c r="X69" s="2">
         <f>VLOOKUP(A69,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -10798,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10825,7 +10829,7 @@
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302.88799999999998</v>
       </c>
       <c r="J70" s="18">
@@ -10833,25 +10837,25 @@
         <v>1</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R70" s="19"/>
       <c r="S70" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T70" s="19"/>
       <c r="V70" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W70" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X70" s="2">
@@ -10871,7 +10875,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="AB70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10900,7 +10904,7 @@
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="23">
-        <f t="shared" ref="I71:I96" si="10">G71-H71</f>
+        <f t="shared" ref="I71:I96" si="11">G71-H71</f>
         <v>-5.49</v>
       </c>
       <c r="J71" s="18">
@@ -10908,25 +10912,25 @@
         <v>1</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" ref="M71:M96" si="11">F71-N71</f>
+        <f t="shared" ref="M71:M96" si="12">F71-N71</f>
         <v>5.1920000000000002</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" ref="Q71:Q96" si="12">M71/5</f>
+        <f t="shared" ref="Q71:Q96" si="13">M71/5</f>
         <v>1.0384</v>
       </c>
       <c r="R71" s="26"/>
       <c r="S71" s="19">
-        <f t="shared" ref="S71:S96" si="13">R71</f>
+        <f t="shared" ref="S71:S96" si="14">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="19"/>
       <c r="V71" s="2">
-        <f t="shared" ref="V71:V96" si="14">(I71+S71)/Q71</f>
+        <f t="shared" ref="V71:V96" si="15">(I71+S71)/Q71</f>
         <v>-5.286979969183359</v>
       </c>
       <c r="W71" s="2">
-        <f t="shared" ref="W71:W96" si="15">I71/Q71</f>
+        <f t="shared" ref="W71:W96" si="16">I71/Q71</f>
         <v>-5.286979969183359</v>
       </c>
       <c r="X71" s="2">
@@ -10946,7 +10950,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="AB71" s="2">
-        <f t="shared" ref="AB71:AB96" si="16">S71*J71</f>
+        <f t="shared" ref="AB71:AB96" si="17">S71*J71</f>
         <v>0</v>
       </c>
     </row>
@@ -10975,7 +10979,7 @@
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>309</v>
       </c>
       <c r="J72" s="18">
@@ -10983,25 +10987,25 @@
         <v>0.4</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.6</v>
       </c>
       <c r="R72" s="19"/>
       <c r="S72" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T72" s="19"/>
       <c r="V72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>85.833333333333329</v>
       </c>
       <c r="W72" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>85.833333333333329</v>
       </c>
       <c r="X72" s="2">
@@ -11021,7 +11025,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="AB72" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11050,7 +11054,7 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="J73" s="18">
@@ -11058,25 +11062,25 @@
         <v>0.4</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="R73" s="19"/>
       <c r="S73" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T73" s="19"/>
       <c r="V73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.878048780487809</v>
       </c>
       <c r="W73" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.878048780487809</v>
       </c>
       <c r="X73" s="2">
@@ -11096,7 +11100,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="AB73" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11118,7 +11122,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J74" s="18">
@@ -11126,25 +11130,25 @@
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R74" s="19"/>
       <c r="S74" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T74" s="19"/>
       <c r="V74" s="2" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W74" s="2" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X74" s="2">
@@ -11160,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11191,14 +11195,14 @@
         <v>96</v>
       </c>
       <c r="I75" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="J75" s="18">
         <v>0.4</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="N75" s="2">
@@ -11206,7 +11210,7 @@
         <v>95</v>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.2</v>
       </c>
       <c r="R75" s="19">
@@ -11218,11 +11222,11 @@
       </c>
       <c r="T75" s="19"/>
       <c r="V75" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.3255813953488378</v>
       </c>
       <c r="W75" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.63953488372093026</v>
       </c>
       <c r="X75" s="2">
@@ -11235,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
     </row>
@@ -11259,7 +11263,7 @@
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>209.797</v>
       </c>
       <c r="J76" s="18">
@@ -11267,25 +11271,25 @@
         <v>1</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R76" s="19"/>
       <c r="S76" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T76" s="19"/>
       <c r="V76" s="2" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W76" s="2" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X76" s="2">
@@ -11301,7 +11305,7 @@
         <v>17.2986</v>
       </c>
       <c r="AB76" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11327,7 +11331,7 @@
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>158.60300000000001</v>
       </c>
       <c r="J77" s="18">
@@ -11335,15 +11339,15 @@
         <v>1</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>116.393</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.278600000000001</v>
       </c>
       <c r="R77" s="19">
-        <f t="shared" ref="R77" si="17">12*Q77-I77</f>
+        <f t="shared" ref="R77" si="18">12*Q77-I77</f>
         <v>120.74020000000002</v>
       </c>
       <c r="S77" s="19">
@@ -11351,11 +11355,11 @@
       </c>
       <c r="T77" s="19"/>
       <c r="V77" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.753413005936784</v>
       </c>
       <c r="W77" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8132533743438177</v>
       </c>
       <c r="X77" s="2">
@@ -11371,7 +11375,7 @@
         <v>21.7682</v>
       </c>
       <c r="AB77" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
     </row>
@@ -11397,7 +11401,7 @@
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>156</v>
       </c>
       <c r="J78" s="18">
@@ -11405,25 +11409,25 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.2</v>
       </c>
       <c r="R78" s="19"/>
       <c r="S78" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T78" s="19"/>
       <c r="V78" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-780</v>
       </c>
       <c r="W78" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-780</v>
       </c>
       <c r="X78" s="2">
@@ -11443,7 +11447,7 @@
         <v>вместо - 084  Колбаски Баварские копченые, NDX в МГС 0,28 кг, ТМ Стародворье  ПОКОМ</v>
       </c>
       <c r="AB78" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11467,7 +11471,7 @@
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="J79" s="18">
@@ -11475,11 +11479,11 @@
         <v>0.4</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="R79" s="19">
@@ -11491,11 +11495,11 @@
       </c>
       <c r="T79" s="19"/>
       <c r="V79" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.433333333333334</v>
       </c>
       <c r="W79" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.7666666666666666</v>
       </c>
       <c r="X79" s="2">
@@ -11511,7 +11515,7 @@
         <v>4</v>
       </c>
       <c r="AB79" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>80</v>
       </c>
     </row>
@@ -11535,7 +11539,7 @@
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="J80" s="18">
@@ -11543,11 +11547,11 @@
         <v>0.33</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="R80" s="19">
@@ -11559,11 +11563,11 @@
       </c>
       <c r="T80" s="19"/>
       <c r="V80" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.5357142857142865</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.4642857142857144</v>
       </c>
       <c r="X80" s="2">
@@ -11579,7 +11583,7 @@
         <v>2.6</v>
       </c>
       <c r="AB80" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>56.1</v>
       </c>
     </row>
@@ -11608,7 +11612,7 @@
         <v>50</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="J81" s="18">
@@ -11616,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N81" s="2">
@@ -11624,23 +11628,23 @@
         <v>47</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="R81" s="19"/>
       <c r="S81" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T81" s="19"/>
       <c r="V81" s="2">
-        <f t="shared" si="14"/>
-        <v>260</v>
-      </c>
-      <c r="W81" s="2">
         <f t="shared" si="15"/>
         <v>260</v>
       </c>
+      <c r="W81" s="2">
+        <f t="shared" si="16"/>
+        <v>260</v>
+      </c>
       <c r="X81" s="2">
         <f>VLOOKUP(A81,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -11654,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="AB81" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11683,7 +11687,7 @@
         <v>78</v>
       </c>
       <c r="I82" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="J82" s="18">
@@ -11691,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N82" s="2">
@@ -11699,23 +11703,23 @@
         <v>74</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R82" s="19"/>
       <c r="S82" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T82" s="19"/>
       <c r="V82" s="2" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W82" s="2" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="W82" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X82" s="2">
         <f>VLOOKUP(A82,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -11729,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11758,7 +11762,7 @@
         <v>90</v>
       </c>
       <c r="I83" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="J83" s="18">
@@ -11766,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="N83" s="2">
@@ -11774,23 +11778,23 @@
         <v>89</v>
       </c>
       <c r="Q83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="R83" s="19"/>
       <c r="S83" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T83" s="19"/>
       <c r="V83" s="2">
-        <f t="shared" si="14"/>
-        <v>14.565217391304349</v>
-      </c>
-      <c r="W83" s="2">
         <f t="shared" si="15"/>
         <v>14.565217391304349</v>
       </c>
+      <c r="W83" s="2">
+        <f t="shared" si="16"/>
+        <v>14.565217391304349</v>
+      </c>
       <c r="X83" s="2">
         <f>VLOOKUP(A83,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -11804,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="AB83" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11833,7 +11837,7 @@
         <v>90</v>
       </c>
       <c r="I84" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="J84" s="18">
@@ -11841,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="N84" s="2">
@@ -11849,23 +11853,23 @@
         <v>89</v>
       </c>
       <c r="Q84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
       <c r="R84" s="19"/>
       <c r="S84" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T84" s="19"/>
       <c r="V84" s="2">
-        <f t="shared" si="14"/>
-        <v>70.833333333333343</v>
-      </c>
-      <c r="W84" s="2">
         <f t="shared" si="15"/>
         <v>70.833333333333343</v>
       </c>
+      <c r="W84" s="2">
+        <f t="shared" si="16"/>
+        <v>70.833333333333343</v>
+      </c>
       <c r="X84" s="2">
         <f>VLOOKUP(A84,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -11879,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="AB84" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11908,7 +11912,7 @@
         <v>84</v>
       </c>
       <c r="I85" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="J85" s="18">
@@ -11916,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N85" s="2">
@@ -11924,23 +11928,23 @@
         <v>79</v>
       </c>
       <c r="Q85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R85" s="19"/>
       <c r="S85" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T85" s="19"/>
       <c r="V85" s="2" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W85" s="2" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="W85" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X85" s="2">
         <f>VLOOKUP(A85,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -11954,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="AB85" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11983,7 +11987,7 @@
         <v>90</v>
       </c>
       <c r="I86" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="J86" s="18">
@@ -11991,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N86" s="2">
@@ -11999,23 +12003,23 @@
         <v>89</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="R86" s="19"/>
       <c r="S86" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T86" s="19"/>
       <c r="V86" s="2">
-        <f t="shared" si="14"/>
-        <v>148.33333333333334</v>
-      </c>
-      <c r="W86" s="2">
         <f t="shared" si="15"/>
         <v>148.33333333333334</v>
       </c>
+      <c r="W86" s="2">
+        <f t="shared" si="16"/>
+        <v>148.33333333333334</v>
+      </c>
       <c r="X86" s="2">
         <f>VLOOKUP(A86,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -12029,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12058,7 +12062,7 @@
         <v>78</v>
       </c>
       <c r="I87" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="J87" s="18">
@@ -12066,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="N87" s="2">
@@ -12074,23 +12078,23 @@
         <v>77</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="R87" s="19"/>
       <c r="S87" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T87" s="19"/>
       <c r="V87" s="2">
-        <f t="shared" si="14"/>
-        <v>192.5</v>
-      </c>
-      <c r="W87" s="2">
         <f t="shared" si="15"/>
         <v>192.5</v>
       </c>
+      <c r="W87" s="2">
+        <f t="shared" si="16"/>
+        <v>192.5</v>
+      </c>
       <c r="X87" s="2">
         <f>VLOOKUP(A87,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -12104,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12133,7 +12137,7 @@
         <v>44.283000000000001</v>
       </c>
       <c r="I88" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.07</v>
       </c>
       <c r="J88" s="18">
@@ -12141,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.601999999999997</v>
       </c>
       <c r="N88" s="2">
@@ -12149,23 +12153,23 @@
         <v>42.917999999999999</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.920399999999999</v>
       </c>
       <c r="R88" s="19"/>
       <c r="S88" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T88" s="19"/>
       <c r="V88" s="2">
-        <f t="shared" si="14"/>
-        <v>1.3630835754340926</v>
-      </c>
-      <c r="W88" s="2">
         <f t="shared" si="15"/>
         <v>1.3630835754340926</v>
       </c>
+      <c r="W88" s="2">
+        <f t="shared" si="16"/>
+        <v>1.3630835754340926</v>
+      </c>
       <c r="X88" s="2">
         <f>VLOOKUP(A88,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
@@ -12179,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12201,7 +12205,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J89" s="18">
@@ -12209,25 +12213,25 @@
         <v>0</v>
       </c>
       <c r="M89" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R89" s="19"/>
       <c r="S89" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T89" s="19"/>
       <c r="V89" s="2" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W89" s="2" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X89" s="2">
@@ -12243,7 +12247,7 @@
         <v>0.2</v>
       </c>
       <c r="AB89" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12265,7 +12269,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J90" s="18">
@@ -12273,25 +12277,25 @@
         <v>0</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R90" s="19"/>
       <c r="S90" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T90" s="19"/>
       <c r="V90" s="2" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W90" s="2" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X90" s="2">
@@ -12307,7 +12311,7 @@
         <v>31.747000000000003</v>
       </c>
       <c r="AB90" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12329,7 +12333,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J91" s="18">
@@ -12337,25 +12341,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R91" s="19"/>
       <c r="S91" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T91" s="19"/>
       <c r="V91" s="2" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W91" s="2" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X91" s="2">
@@ -12371,7 +12375,7 @@
         <v>4.9428000000000001</v>
       </c>
       <c r="AB91" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12391,7 +12395,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J92" s="18">
@@ -12399,25 +12403,25 @@
         <v>0</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R92" s="19"/>
       <c r="S92" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T92" s="19"/>
       <c r="V92" s="2" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W92" s="2" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X92" s="2">
@@ -12433,7 +12437,7 @@
         <v>0.8</v>
       </c>
       <c r="AB92" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12457,7 +12461,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J93" s="18">
@@ -12465,25 +12469,25 @@
         <v>0</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.702</v>
       </c>
       <c r="Q93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.54039999999999999</v>
       </c>
       <c r="R93" s="19"/>
       <c r="S93" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T93" s="19"/>
       <c r="V93" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W93" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X93" s="2">
@@ -12499,7 +12503,7 @@
         <v>1.0766</v>
       </c>
       <c r="AB93" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12519,7 +12523,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J94" s="18">
@@ -12527,25 +12531,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q94" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R94" s="19"/>
       <c r="S94" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T94" s="19"/>
       <c r="V94" s="2" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W94" s="2" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X94" s="2">
@@ -12561,7 +12565,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="AB94" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12585,7 +12589,7 @@
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.7010000000000001</v>
       </c>
       <c r="J95" s="18">
@@ -12593,25 +12597,25 @@
         <v>0</v>
       </c>
       <c r="M95" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4260000000000002</v>
       </c>
       <c r="Q95" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0851999999999999</v>
       </c>
       <c r="R95" s="19"/>
       <c r="S95" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T95" s="19"/>
       <c r="V95" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.4889421304828603</v>
       </c>
       <c r="W95" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.4889421304828603</v>
       </c>
       <c r="X95" s="2">
@@ -12627,7 +12631,7 @@
         <v>14.144399999999999</v>
       </c>
       <c r="AB95" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12651,7 +12655,7 @@
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41.033999999999999</v>
       </c>
       <c r="J96" s="18">
@@ -12659,25 +12663,25 @@
         <v>0</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31.498000000000001</v>
       </c>
       <c r="Q96" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.2995999999999999</v>
       </c>
       <c r="R96" s="19"/>
       <c r="S96" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T96" s="19"/>
       <c r="V96" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.5137469045653695</v>
       </c>
       <c r="W96" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.5137469045653695</v>
       </c>
       <c r="X96" s="2">
@@ -12693,7 +12697,7 @@
         <v>8.4890000000000008</v>
       </c>
       <c r="AB96" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
